--- a/documents/graficas.xlsx
+++ b/documents/graficas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AxelFolder\University\algoritmos_y_estructura_de_datos\hoja_trabajo_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\hoja_trabajo_3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB96E01-2DCA-4369-AEB2-E65B0A269A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5E6B651-E8A0-4D7A-9093-7E96A8FBAD70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +23,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Cantidad de elementos</t>
+  </si>
+  <si>
+    <t>Tiempo Merge sort(ns)</t>
+  </si>
+  <si>
+    <t>Tiempo Gnome sort(ns)</t>
+  </si>
+  <si>
+    <t>Tiempo Quick sort(ns)</t>
+  </si>
+  <si>
+    <t>Tiempo Radix sort(ns)</t>
+  </si>
+  <si>
+    <t>Tiempo Selection Sort (ns)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,8 +96,1515 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Gnome sort(ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1902400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4118000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3514300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11815100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16105200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35698900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35808300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37042400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55093900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61949500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA59-40ED-8DB5-268DED99B510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Merge sort(ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>710300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4479000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4083800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1390500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>834800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1511200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1415000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2038200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1165300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EA59-40ED-8DB5-268DED99B510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Quick sort(ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>371500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>487800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>580800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>820600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EA59-40ED-8DB5-268DED99B510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Radix sort(ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>371350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>848600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>677100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1273900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1829900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1619800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1907000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1923800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2032700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5099100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EA59-40ED-8DB5-268DED99B510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Selection Sort (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>764900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3002000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11370600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10450600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3312000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5047000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8222000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19362600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11856100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B99-4EE7-B317-0FDE4E4C15C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1036403744"/>
+        <c:axId val="1180861184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1036403744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180861184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1180861184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036403744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -91,7 +1620,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -103,7 +1632,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -150,23 +1679,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -202,23 +1714,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,13 +1865,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435570BE-CB80-4E51-8DA5-5990A77F9314}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>364300</v>
+      </c>
+      <c r="C3">
+        <v>268900</v>
+      </c>
+      <c r="D3">
+        <v>75400</v>
+      </c>
+      <c r="E3">
+        <v>371350</v>
+      </c>
+      <c r="F3">
+        <v>764900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>1902400</v>
+      </c>
+      <c r="C4">
+        <v>296000</v>
+      </c>
+      <c r="D4">
+        <v>177000</v>
+      </c>
+      <c r="E4">
+        <v>848600</v>
+      </c>
+      <c r="F4">
+        <v>3002000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>4118000</v>
+      </c>
+      <c r="C5">
+        <v>710300</v>
+      </c>
+      <c r="D5">
+        <v>223300</v>
+      </c>
+      <c r="E5">
+        <v>989900</v>
+      </c>
+      <c r="F5">
+        <v>8987200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>600</v>
+      </c>
+      <c r="B6">
+        <v>3514300</v>
+      </c>
+      <c r="C6">
+        <v>4479000</v>
+      </c>
+      <c r="D6">
+        <v>371500</v>
+      </c>
+      <c r="E6">
+        <v>677100</v>
+      </c>
+      <c r="F6">
+        <v>11370600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1200</v>
+      </c>
+      <c r="B7">
+        <v>11815100</v>
+      </c>
+      <c r="C7">
+        <v>4083800</v>
+      </c>
+      <c r="D7">
+        <v>724300</v>
+      </c>
+      <c r="E7">
+        <v>1273900</v>
+      </c>
+      <c r="F7">
+        <v>10450600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1400</v>
+      </c>
+      <c r="B8">
+        <v>16105200</v>
+      </c>
+      <c r="C8">
+        <v>1390500</v>
+      </c>
+      <c r="D8">
+        <v>487800</v>
+      </c>
+      <c r="E8">
+        <v>1829900</v>
+      </c>
+      <c r="F8">
+        <v>2031900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1800</v>
+      </c>
+      <c r="B9">
+        <v>35698900</v>
+      </c>
+      <c r="C9">
+        <v>834800</v>
+      </c>
+      <c r="D9">
+        <v>330700</v>
+      </c>
+      <c r="E9">
+        <v>1619800</v>
+      </c>
+      <c r="F9">
+        <v>3312000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10">
+        <v>35808300</v>
+      </c>
+      <c r="C10">
+        <v>1511200</v>
+      </c>
+      <c r="D10">
+        <v>570500</v>
+      </c>
+      <c r="E10">
+        <v>1907000</v>
+      </c>
+      <c r="F10">
+        <v>5047000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2300</v>
+      </c>
+      <c r="B11">
+        <v>37042400</v>
+      </c>
+      <c r="C11">
+        <v>1415000</v>
+      </c>
+      <c r="D11">
+        <v>461500</v>
+      </c>
+      <c r="E11">
+        <v>1923800</v>
+      </c>
+      <c r="F11">
+        <v>8222000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2600</v>
+      </c>
+      <c r="B12">
+        <v>55093900</v>
+      </c>
+      <c r="C12">
+        <v>2038200</v>
+      </c>
+      <c r="D12">
+        <v>580800</v>
+      </c>
+      <c r="E12">
+        <v>2032700</v>
+      </c>
+      <c r="F12">
+        <v>19362600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2900</v>
+      </c>
+      <c r="B13">
+        <v>61949500</v>
+      </c>
+      <c r="C13">
+        <v>1165300</v>
+      </c>
+      <c r="D13">
+        <v>820600</v>
+      </c>
+      <c r="E13">
+        <v>5099100</v>
+      </c>
+      <c r="F13">
+        <v>11856100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/graficas.xlsx
+++ b/documents/graficas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Cantidad de elementos</t>
   </si>
@@ -42,6 +42,24 @@
   </si>
   <si>
     <t>Tiempo Selection Sort (ns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimiento Teorico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnome: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge: </t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Radix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection: </t>
   </si>
 </sst>
 </file>
@@ -1598,6 +1616,281 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1309687</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Gnome Sort in C#"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000875" y="3833812"/>
+          <a:ext cx="3000375" cy="1687711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Análisis comparativo de algoritmos de ordenamiento"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11049000" y="3619500"/>
+          <a:ext cx="3333750" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>727363</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>681558</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Análisis comparativo de algoritmos de ordenamiento"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14824363" y="3654137"/>
+          <a:ext cx="3764195" cy="2182090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1229591</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>318208</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="Análisis comparativo de algoritmos de ordenamiento"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6927273" y="6494318"/>
+          <a:ext cx="3677935" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313294</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="Radix | Numerentur.org | Versión Móvil"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11049000" y="6477001"/>
+          <a:ext cx="4123294" cy="1956954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1866,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,6 +2434,44 @@
         <v>11856100</v>
       </c>
     </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
